--- a/test.xlsx
+++ b/test.xlsx
@@ -11,21 +11,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>a</t>
+    <t>Jyothis P</t>
   </si>
   <si>
-    <t>b</t>
+    <t>jyothisp52@gmail.com</t>
   </si>
   <si>
-    <t>c</t>
+    <t>TestMail</t>
   </si>
   <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
+    <t>mail@dhishna.org</t>
   </si>
 </sst>
 </file>
@@ -283,106 +280,24 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="29.29"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>1.0</v>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="1">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="1">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1">
-        <v>121.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="1">
-        <v>3234.0</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Jyothis P</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>mail@dhishna.org</t>
+  </si>
+  <si>
+    <t>Knowledge Partners</t>
   </si>
 </sst>
 </file>
@@ -299,6 +302,9 @@
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
